--- a/Exercicios propostos finais regr lin simples.xlsx
+++ b/Exercicios propostos finais regr lin simples.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio 1" sheetId="1" r:id="rId1"/>
     <sheet name="Exercicio 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercício 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Valor de venda ($1.000)</t>
   </si>
@@ -38,12 +39,21 @@
   <si>
     <t>GPI</t>
   </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Faturas</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +68,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,6 +114,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,6 +810,494 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>k) Construa uma estimativa de intervalo de confiança de 95% de inclinação da população</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>l) Faça uma análise de resíduos em seus resultados e determine a adequação do ajuste do modelo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>m) Suponha que os GPIs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> do 19ª e do 20ª aluno tenham sido digitados incorretamente. O GPI para o aluno 19 deveria ser igual a 3,76 e o GPI para o aluno 20 deveria ser igual a 3,88. Faça os itens a) até l) e compare os resultados.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>530412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="530412" y="74706"/>
+          <a:ext cx="12012706" cy="463176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>Relacionando o tempo com faturas processadas: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0"/>
+            <a:t>O gerente do departamento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" baseline="0"/>
+            <a:t> de compras de um banco gostaria de desenvolver um modelo para prever a quantidade de tempo necessária para processar faturas. Os dados foram coletados a partir de uma amostra de 30 dias, com os seguintes resultados:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468032</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612588" y="6723529"/>
+          <a:ext cx="7819091" cy="2972920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>a) Ao determinar a variável</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> dependente e a explicativa, faça o diagrama de dispersão e supondo uma relação linear, utilize MQO para encontrar os coeficientes de regressão;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>b) Interprete o signficado da intersecção de Y, alfa e a inclinação de b1 nesse problema;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>c) Utilize o modelo encontrado em a) para prever a quantidade de tempo necessária para processar 150 faturas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>d) Calcule o erro padrão da estimativa</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e) Calcule o R^2 e interprete seu significado neste problema</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>f) Calcule o coeficiente de correlação r</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>g) Calcule R^2 ajustado e compare com R^2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>h) Calcule a estatística DW no nível de significância de 5%, determine se há autocorrelação residual;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>i) Com</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> base nos resultados de </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>h), que conclusões pode tirar a respeito</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> do modelo ajustado em b) ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>j)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No nível de significância de 5% há evidências de relação linear entre a quantidade de tempo e o número de faturas processadas ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i) Construa uma estimativa do intervalo de confiança de 95% para a quantidade média de tempo necessária para processar 150 faturas.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>j) Construa uma estimativa do intervalo de previsão de 95% da quantidade de tempo que levaria para processar 150 faturas em determinado dia</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1179,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1447,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1625,4 +2133,361 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>188</v>
+      </c>
+      <c r="D8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>201</v>
+      </c>
+      <c r="D10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>222</v>
+      </c>
+      <c r="D13">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>181</v>
+      </c>
+      <c r="D14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>173</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>190</v>
+      </c>
+      <c r="D22">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>233</v>
+      </c>
+      <c r="D23">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>289</v>
+      </c>
+      <c r="D24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>193</v>
+      </c>
+      <c r="D26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>241</v>
+      </c>
+      <c r="D28">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>103</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>201</v>
+      </c>
+      <c r="D32">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>135</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>